--- a/biology/Médecine/Alphonse_Lami/Alphonse_Lami.xlsx
+++ b/biology/Médecine/Alphonse_Lami/Alphonse_Lami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alphonse Lami, né le 2 juin 1822 à Paris et mort le 17 juillet 1867 à Alexandrie, est un sculpteur français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de François Lami et de Louise Hélène Heim[1], Alphonse Lami est le petit-fils illégitime du prince Francesco Borghèse, premier écuyer de Napoléon, général d'Empire[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de François Lami et de Louise Hélène Heim, Alphonse Lami est le petit-fils illégitime du prince Francesco Borghèse, premier écuyer de Napoléon, général d'Empire.
 Alphonse Lami épouse en 1853 Alexandrine-Marie Bidauld, petite-fille du peintre paysagiste Jean-Joseph-Xavier Bidauld, membre de l'Académie des beaux-arts. Leur fils, Stanislas Lami, est un sculpteur et écrivain d'art renommé pour son Dictionnaire des sculpteurs de l'École française. Il fait également partie de la parentèle de Charles de Gaulle.
 Il est l'élève d'Abel de Pujol et de Francisque Duret à l'École des beaux-arts de Paris où il est admis le 7 octobre 1846, et débute au Salon de 1850 avec une statue de marbre intitulée Liseuse. Il voyage ensuite en Égypte où, de 1852 à 1853, il prend part aux fouilles du Sérapéum de Saqqarah, dirigées par son ami Auguste Mariette.
 Revenu à Paris, il s'adonne à l'étude de l'anatomie artistique et exécute une figure d'écorché, dans l'attitude d'un bêcheur, qu'il expose au Salon de 1857. Cette œuvre, présentée à l'Académie des sciences, fut l'objet d'un rapport élogieux fait au nom de Claude Bernard, Pierre Rayer, Horace Vernet et Jean Louis Armand de Quatrefages de Bréau. En 1861, l'artiste publie, d'après cet écorché, un album de planches gravées, sous le titre Myologie superficielle du corps humain.
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Montpellier :
 faculté de médecine : Paul Joseph Barthez, 1864, statue en bronze.
@@ -579,7 +595,9 @@
           <t>Salons</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1850 : Liseuse.
 1857 : Écorché.</t>
